--- a/DriverReport.xlsx
+++ b/DriverReport.xlsx
@@ -25,7 +25,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="15.0"/>
       <color rgb="000000"/>
       <name val="SansSerif"/>
       <b val="true"/>
@@ -35,7 +35,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="19.0"/>
+      <sz val="14.0"/>
       <color rgb="000000"/>
       <name val="SansSerif"/>
       <b val="true"/>
@@ -45,7 +45,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="12.0"/>
       <color rgb="000000"/>
       <name val="SansSerif"/>
       <b val="false"/>
@@ -55,37 +55,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <name val="SansSerif"/>
-      <b val="true"/>
-      <i val="false"/>
-      <u val="none"/>
-      <strike val="false"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15.0"/>
-      <color rgb="000000"/>
-      <name val="SansSerif"/>
-      <b val="false"/>
-      <i val="false"/>
-      <u val="none"/>
-      <strike val="false"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="19.0"/>
-      <color rgb="000000"/>
-      <name val="SansSerif"/>
-      <b val="false"/>
-      <i val="false"/>
-      <u val="none"/>
-      <strike val="false"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16.0"/>
+      <sz val="10.0"/>
       <color rgb="000000"/>
       <name val="SansSerif"/>
       <b val="false"/>
@@ -131,22 +101,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00BCE4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCE4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCE4"/>
       </patternFill>
     </fill>
     <fill>
@@ -208,20 +173,16 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="true" horizontal="right" vertical="top"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="center" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="right" vertical="center"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -240,14 +201,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1355683855" name="Picture">
+        <xdr:cNvPr id="861937754" name="Picture">
 </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
@@ -285,27 +246,28 @@
     <col min="1" max="1" customWidth="1" width="3.3333333"/>
     <col min="2" max="2" customWidth="1" width="0.16666667"/>
     <col min="3" max="3" customWidth="1" width="1.3333334"/>
-    <col min="4" max="4" customWidth="1" width="0.16666667"/>
-    <col min="5" max="5" customWidth="1" width="13.166667"/>
-    <col min="6" max="6" customWidth="1" width="8.5"/>
-    <col min="7" max="7" customWidth="1" width="16.666666"/>
-    <col min="8" max="8" customWidth="1" width="4.3333335"/>
-    <col min="9" max="9" customWidth="1" width="0.33333334"/>
-    <col min="10" max="10" customWidth="1" width="5.3333335"/>
-    <col min="11" max="11" customWidth="1" width="5.5"/>
-    <col min="12" max="12" customWidth="1" width="0.33333334"/>
-    <col min="13" max="13" customWidth="1" width="19.166666"/>
-    <col min="14" max="14" customWidth="1" width="1.5"/>
-    <col min="15" max="15" customWidth="1" width="5.3333335"/>
-    <col min="16" max="16" customWidth="1" width="0.33333334"/>
-    <col min="17" max="17" customWidth="1" width="19.0"/>
-    <col min="18" max="18" customWidth="1" width="0.33333334"/>
-    <col min="19" max="19" customWidth="1" width="3.5"/>
-    <col min="20" max="20" customWidth="1" width="8.166667"/>
-    <col min="21" max="21" customWidth="1" width="0.16666667"/>
-    <col min="22" max="22" customWidth="1" width="7.6666665"/>
-    <col min="23" max="23" customWidth="1" width="0.16666667"/>
-    <col min="24" max="24" customWidth="1" width="4.3333335"/>
+    <col min="4" max="4" customWidth="1" width="10.333333"/>
+    <col min="5" max="5" customWidth="1" width="8.0"/>
+    <col min="6" max="6" customWidth="1" width="1.6666666"/>
+    <col min="7" max="7" customWidth="1" width="0.16666667"/>
+    <col min="8" max="8" customWidth="1" width="1.6666666"/>
+    <col min="9" max="9" customWidth="1" width="3.1666667"/>
+    <col min="10" max="10" customWidth="1" width="3.3333333"/>
+    <col min="11" max="11" customWidth="1" width="1.0"/>
+    <col min="12" max="12" customWidth="1" width="7.5"/>
+    <col min="13" max="13" customWidth="1" width="1.5"/>
+    <col min="14" max="14" customWidth="1" width="11.666667"/>
+    <col min="15" max="15" customWidth="1" width="5.1666665"/>
+    <col min="16" max="16" customWidth="1" width="1.6666666"/>
+    <col min="17" max="17" customWidth="1" width="6.6666665"/>
+    <col min="18" max="18" customWidth="1" width="11.666667"/>
+    <col min="19" max="19" customWidth="1" width="5.0"/>
+    <col min="20" max="20" customWidth="1" width="1.6666666"/>
+    <col min="21" max="21" customWidth="1" width="3.3333333"/>
+    <col min="22" max="22" customWidth="1" width="1.6666666"/>
+    <col min="23" max="23" customWidth="1" width="4.0"/>
+    <col min="24" max="24" customWidth="1" width="2.6666667"/>
+    <col min="25" max="25" customWidth="1" width="0.8333333"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="22">
@@ -333,16 +295,17 @@
       <c r="V1" s="1" t="inlineStr"/>
       <c r="W1" s="1" t="inlineStr"/>
       <c r="X1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2" customHeight="1" ht="8">
+      <c r="Y1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2" customHeight="1" ht="17">
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr"/>
       <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr"/>
@@ -359,29 +322,30 @@
       <c r="V2" s="1" t="inlineStr"/>
       <c r="W2" s="1" t="inlineStr"/>
       <c r="X2" s="1" t="inlineStr"/>
-    </row>
-    <row r="3" customHeight="1" ht="34">
+      <c r="Y2" s="1" t="inlineStr"/>
+    </row>
+    <row r="3" customHeight="1" ht="20">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr"/>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="1" t="inlineStr"/>
-      <c r="H3" s="1" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="1" t="inlineStr"/>
       <c r="J3" s="1" t="inlineStr"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">تقرير مصفاة</t>
-          </r>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr"/>
+      <c r="L3" s="1" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">تقرير مركبة</t>
+          </r>
+        </is>
+      </c>
       <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="1" t="inlineStr"/>
+      <c r="O3" s="3" t="inlineStr"/>
       <c r="P3" s="1" t="inlineStr"/>
       <c r="Q3" s="1" t="inlineStr"/>
       <c r="R3" s="1" t="inlineStr"/>
@@ -391,16 +355,17 @@
       <c r="V3" s="1" t="inlineStr"/>
       <c r="W3" s="1" t="inlineStr"/>
       <c r="X3" s="1" t="inlineStr"/>
-    </row>
-    <row r="4" customHeight="1" ht="8">
+      <c r="Y3" s="1" t="inlineStr"/>
+    </row>
+    <row r="4" customHeight="1" ht="13">
       <c r="A4" s="1" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="1" t="inlineStr"/>
-      <c r="H4" s="1" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
       <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="1" t="inlineStr"/>
@@ -417,8 +382,9 @@
       <c r="V4" s="1" t="inlineStr"/>
       <c r="W4" s="1" t="inlineStr"/>
       <c r="X4" s="1" t="inlineStr"/>
-    </row>
-    <row r="5" customHeight="1" ht="18">
+      <c r="Y4" s="1" t="inlineStr"/>
+    </row>
+    <row r="5" customHeight="1" ht="6">
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr"/>
       <c r="C5" s="1" t="inlineStr"/>
@@ -443,59 +409,67 @@
       <c r="V5" s="1" t="inlineStr"/>
       <c r="W5" s="1" t="inlineStr"/>
       <c r="X5" s="1" t="inlineStr"/>
-    </row>
-    <row r="6" customHeight="1" ht="27">
+      <c r="Y5" s="1" t="inlineStr"/>
+    </row>
+    <row r="6" customHeight="1" ht="20">
       <c r="A6" s="1" t="inlineStr"/>
       <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">traref1</t>
+            <t xml:space="preserve">251716</t>
           </r>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr"/>
       <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="1" t="inlineStr"/>
-      <c r="M6" s="1" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">رقم المركبة</t>
+          </r>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="1" t="inlineStr"/>
       <c r="O6" s="1" t="inlineStr"/>
-      <c r="P6" s="1" t="inlineStr"/>
-      <c r="Q6" s="1" t="inlineStr"/>
-      <c r="R6" s="1" t="inlineStr"/>
-      <c r="S6" s="1" t="inlineStr"/>
-      <c r="T6" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">المصفاة</t>
-          </r>
-        </is>
-      </c>
-      <c r="U6" s="5" t="inlineStr"/>
-      <c r="V6" s="5" t="inlineStr"/>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">عبد الجواد اللايح</t>
+          </r>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr"/>
+      <c r="R6" s="4" t="inlineStr"/>
+      <c r="S6" s="4" t="inlineStr"/>
+      <c r="T6" s="1" t="inlineStr"/>
+      <c r="U6" s="1" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">السائق</t>
+          </r>
+        </is>
+      </c>
       <c r="W6" s="5" t="inlineStr"/>
       <c r="X6" s="1" t="inlineStr"/>
-    </row>
-    <row r="7" customHeight="1" ht="1">
+      <c r="Y6" s="1" t="inlineStr"/>
+    </row>
+    <row r="7" customHeight="1" ht="4">
       <c r="A7" s="1" t="inlineStr"/>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">2024-10-14T22:36:</t>
-          </r>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr"/>
-      <c r="G7" s="6" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="inlineStr"/>
       <c r="H7" s="1" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr"/>
@@ -513,40 +487,60 @@
       <c r="V7" s="1" t="inlineStr"/>
       <c r="W7" s="1" t="inlineStr"/>
       <c r="X7" s="1" t="inlineStr"/>
-    </row>
-    <row r="8" customHeight="1" ht="27">
+      <c r="Y7" s="1" t="inlineStr"/>
+    </row>
+    <row r="8" customHeight="1" ht="20">
       <c r="A8" s="1" t="inlineStr"/>
       <c r="B8" s="1" t="inlineStr"/>
       <c r="C8" s="1" t="inlineStr"/>
-      <c r="D8" s="1" t="inlineStr"/>
-      <c r="E8" s="6" t="inlineStr"/>
-      <c r="F8" s="6" t="inlineStr"/>
-      <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr"/>
-      <c r="I8" s="1" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">40,000</t>
+          </r>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
+      <c r="I8" s="4" t="inlineStr"/>
       <c r="J8" s="1" t="inlineStr"/>
       <c r="K8" s="1" t="inlineStr"/>
-      <c r="L8" s="1" t="inlineStr"/>
-      <c r="M8" s="1" t="inlineStr"/>
-      <c r="N8" s="7" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">التقرير اليومي لعمل المصفاة بتاريخ</t>
-          </r>
-        </is>
-      </c>
-      <c r="O8" s="7" t="inlineStr"/>
-      <c r="P8" s="7" t="inlineStr"/>
-      <c r="Q8" s="7" t="inlineStr"/>
-      <c r="R8" s="7" t="inlineStr"/>
-      <c r="S8" s="7" t="inlineStr"/>
-      <c r="T8" s="7" t="inlineStr"/>
-      <c r="U8" s="7" t="inlineStr"/>
-      <c r="V8" s="7" t="inlineStr"/>
-      <c r="W8" s="1" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">السعة</t>
+          </r>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="1" t="inlineStr"/>
+      <c r="O8" s="1" t="inlineStr"/>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">قامشلو</t>
+          </r>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr"/>
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="1" t="inlineStr"/>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">مكتب النقل</t>
+          </r>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr"/>
+      <c r="W8" s="5" t="inlineStr"/>
       <c r="X8" s="1" t="inlineStr"/>
-    </row>
-    <row r="9" customHeight="1" ht="1">
+      <c r="Y8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9" customHeight="1" ht="4">
       <c r="A9" s="1" t="inlineStr"/>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr"/>
@@ -560,139 +554,209 @@
       <c r="K9" s="1" t="inlineStr"/>
       <c r="L9" s="1" t="inlineStr"/>
       <c r="M9" s="1" t="inlineStr"/>
-      <c r="N9" s="7" t="inlineStr"/>
-      <c r="O9" s="7" t="inlineStr"/>
-      <c r="P9" s="7" t="inlineStr"/>
-      <c r="Q9" s="7" t="inlineStr"/>
-      <c r="R9" s="7" t="inlineStr"/>
-      <c r="S9" s="7" t="inlineStr"/>
-      <c r="T9" s="7" t="inlineStr"/>
-      <c r="U9" s="7" t="inlineStr"/>
-      <c r="V9" s="7" t="inlineStr"/>
+      <c r="N9" s="1" t="inlineStr"/>
+      <c r="O9" s="1" t="inlineStr"/>
+      <c r="P9" s="1" t="inlineStr"/>
+      <c r="Q9" s="1" t="inlineStr"/>
+      <c r="R9" s="1" t="inlineStr"/>
+      <c r="S9" s="1" t="inlineStr"/>
+      <c r="T9" s="1" t="inlineStr"/>
+      <c r="U9" s="1" t="inlineStr"/>
+      <c r="V9" s="1" t="inlineStr"/>
       <c r="W9" s="1" t="inlineStr"/>
       <c r="X9" s="1" t="inlineStr"/>
-    </row>
-    <row r="10" customHeight="1" ht="4">
+      <c r="Y9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10" customHeight="1" ht="28">
       <c r="A10" s="1" t="inlineStr"/>
       <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr"/>
-      <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr"/>
-      <c r="G10" s="1" t="inlineStr"/>
-      <c r="H10" s="1" t="inlineStr"/>
-      <c r="I10" s="1" t="inlineStr"/>
-      <c r="J10" s="1" t="inlineStr"/>
-      <c r="K10" s="1" t="inlineStr"/>
-      <c r="L10" s="1" t="inlineStr"/>
-      <c r="M10" s="1" t="inlineStr"/>
-      <c r="N10" s="1" t="inlineStr"/>
-      <c r="O10" s="1" t="inlineStr"/>
-      <c r="P10" s="1" t="inlineStr"/>
-      <c r="Q10" s="1" t="inlineStr"/>
-      <c r="R10" s="1" t="inlineStr"/>
-      <c r="S10" s="1" t="inlineStr"/>
-      <c r="T10" s="1" t="inlineStr"/>
-      <c r="U10" s="1" t="inlineStr"/>
-      <c r="V10" s="1" t="inlineStr"/>
-      <c r="W10" s="1" t="inlineStr"/>
-      <c r="X10" s="1" t="inlineStr"/>
-    </row>
-    <row r="11" customHeight="1" ht="1">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">االتاريخ</t>
+          </r>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">السعة</t>
+          </r>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ملاحظات</t>
+          </r>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الإجمالي</t>
+          </r>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">قيمة  الأجر</t>
+          </r>
+        </is>
+      </c>
+      <c r="O10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الوجهة</t>
+          </r>
+        </is>
+      </c>
+      <c r="P10" s="6" t="inlineStr"/>
+      <c r="Q10" s="6" t="inlineStr"/>
+      <c r="R10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">المصدر</t>
+          </r>
+        </is>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">المعرف</t>
+          </r>
+        </is>
+      </c>
+      <c r="T10" s="6" t="inlineStr"/>
+      <c r="U10" s="6" t="inlineStr"/>
+      <c r="V10" s="6" t="inlineStr"/>
+      <c r="W10" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">id</t>
+          </r>
+        </is>
+      </c>
+      <c r="X10" s="6" t="inlineStr"/>
+      <c r="Y10" s="1" t="inlineStr"/>
+    </row>
+    <row r="11" customHeight="1" ht="6">
       <c r="A11" s="1" t="inlineStr"/>
       <c r="B11" s="1" t="inlineStr"/>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">االتاريخ</t>
-          </r>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">الوجهة</t>
-          </r>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
+      <c r="C11" s="1" t="inlineStr"/>
+      <c r="D11" s="1" t="inlineStr"/>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
       <c r="I11" s="1" t="inlineStr"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">السعة</t>
-          </r>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr"/>
+      <c r="J11" s="1" t="inlineStr"/>
+      <c r="K11" s="1" t="inlineStr"/>
       <c r="L11" s="1" t="inlineStr"/>
       <c r="M11" s="1" t="inlineStr"/>
       <c r="N11" s="1" t="inlineStr"/>
       <c r="O11" s="1" t="inlineStr"/>
       <c r="P11" s="1" t="inlineStr"/>
-      <c r="Q11" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">رقم المركبة</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q11" s="1" t="inlineStr"/>
       <c r="R11" s="1" t="inlineStr"/>
-      <c r="S11" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">المعرف</t>
-          </r>
-        </is>
-      </c>
-      <c r="T11" s="9" t="inlineStr"/>
+      <c r="S11" s="1" t="inlineStr"/>
+      <c r="T11" s="1" t="inlineStr"/>
       <c r="U11" s="1" t="inlineStr"/>
-      <c r="V11" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">id</t>
-          </r>
-        </is>
-      </c>
+      <c r="V11" s="1" t="inlineStr"/>
       <c r="W11" s="1" t="inlineStr"/>
       <c r="X11" s="1" t="inlineStr"/>
-    </row>
-    <row r="12" customHeight="1" ht="27">
+      <c r="Y11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="30">
       <c r="A12" s="1" t="inlineStr"/>
       <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="8" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="8" t="inlineStr"/>
-      <c r="K12" s="8" t="inlineStr"/>
-      <c r="L12" s="1" t="inlineStr"/>
-      <c r="M12" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">السائق</t>
-          </r>
-        </is>
-      </c>
-      <c r="N12" s="8" t="inlineStr"/>
-      <c r="O12" s="8" t="inlineStr"/>
-      <c r="P12" s="1" t="inlineStr"/>
-      <c r="Q12" s="8" t="inlineStr"/>
-      <c r="R12" s="1" t="inlineStr"/>
-      <c r="S12" s="9" t="inlineStr"/>
-      <c r="T12" s="9" t="inlineStr"/>
-      <c r="U12" s="1" t="inlineStr"/>
-      <c r="V12" s="9" t="inlineStr"/>
-      <c r="W12" s="1" t="inlineStr"/>
-      <c r="X12" s="1" t="inlineStr"/>
-    </row>
-    <row r="13" customHeight="1" ht="1">
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2024-11-05T16:04:44</t>
+          </r>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">40000</t>
+          </r>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">غ</t>
+          </r>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">4000000.0</t>
+          </r>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr"/>
+      <c r="M12" s="7" t="inlineStr"/>
+      <c r="N12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">100.0SP</t>
+          </r>
+        </is>
+      </c>
+      <c r="O12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Hesekê</t>
+          </r>
+        </is>
+      </c>
+      <c r="P12" s="7" t="inlineStr"/>
+      <c r="Q12" s="7" t="inlineStr"/>
+      <c r="R12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Bargeha Qamişlo</t>
+          </r>
+        </is>
+      </c>
+      <c r="S12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="T12" s="7" t="inlineStr"/>
+      <c r="U12" s="7" t="inlineStr"/>
+      <c r="V12" s="7" t="inlineStr"/>
+      <c r="W12" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="X12" s="7" t="inlineStr"/>
+      <c r="Y12" s="1" t="inlineStr"/>
+    </row>
+    <row r="13" customHeight="1" ht="8">
       <c r="A13" s="1" t="inlineStr"/>
       <c r="B13" s="1" t="inlineStr"/>
       <c r="C13" s="1" t="inlineStr"/>
@@ -705,9 +769,9 @@
       <c r="J13" s="1" t="inlineStr"/>
       <c r="K13" s="1" t="inlineStr"/>
       <c r="L13" s="1" t="inlineStr"/>
-      <c r="M13" s="8" t="inlineStr"/>
-      <c r="N13" s="8" t="inlineStr"/>
-      <c r="O13" s="8" t="inlineStr"/>
+      <c r="M13" s="1" t="inlineStr"/>
+      <c r="N13" s="1" t="inlineStr"/>
+      <c r="O13" s="1" t="inlineStr"/>
       <c r="P13" s="1" t="inlineStr"/>
       <c r="Q13" s="1" t="inlineStr"/>
       <c r="R13" s="1" t="inlineStr"/>
@@ -717,150 +781,110 @@
       <c r="V13" s="1" t="inlineStr"/>
       <c r="W13" s="1" t="inlineStr"/>
       <c r="X13" s="1" t="inlineStr"/>
-    </row>
-    <row r="14" customHeight="1" ht="5">
+      <c r="Y13" s="1" t="inlineStr"/>
+    </row>
+    <row r="14" customHeight="1" ht="22">
       <c r="A14" s="1" t="inlineStr"/>
-      <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
-      <c r="F14" s="1" t="inlineStr"/>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SP</t>
+          </r>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr"/>
+      <c r="D14" s="8" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="1" t="inlineStr"/>
-      <c r="K14" s="1" t="inlineStr"/>
-      <c r="L14" s="1" t="inlineStr"/>
-      <c r="M14" s="1" t="inlineStr"/>
-      <c r="N14" s="1" t="inlineStr"/>
-      <c r="O14" s="1" t="inlineStr"/>
-      <c r="P14" s="1" t="inlineStr"/>
-      <c r="Q14" s="1" t="inlineStr"/>
-      <c r="R14" s="1" t="inlineStr"/>
-      <c r="S14" s="1" t="inlineStr"/>
-      <c r="T14" s="1" t="inlineStr"/>
-      <c r="U14" s="1" t="inlineStr"/>
-      <c r="V14" s="1" t="inlineStr"/>
-      <c r="W14" s="1" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">4000000.0</t>
+          </r>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+      <c r="J14" s="8" t="inlineStr"/>
+      <c r="K14" s="8" t="inlineStr"/>
+      <c r="L14" s="8" t="inlineStr"/>
+      <c r="M14" s="8" t="inlineStr"/>
+      <c r="N14" s="8" t="inlineStr"/>
+      <c r="O14" s="8" t="inlineStr"/>
+      <c r="P14" s="8" t="inlineStr"/>
+      <c r="Q14" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الإجمالي</t>
+          </r>
+        </is>
+      </c>
+      <c r="R14" s="9" t="inlineStr"/>
+      <c r="S14" s="9" t="inlineStr"/>
+      <c r="T14" s="9" t="inlineStr"/>
+      <c r="U14" s="9" t="inlineStr"/>
+      <c r="V14" s="9" t="inlineStr"/>
+      <c r="W14" s="9" t="inlineStr"/>
       <c r="X14" s="1" t="inlineStr"/>
-    </row>
-    <row r="15" customHeight="1" ht="30">
+      <c r="Y14" s="1" t="inlineStr"/>
+    </row>
+    <row r="15" customHeight="1" ht="622">
       <c r="A15" s="1" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr"/>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">2024-06-</t>
-          </r>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">station1</t>
-          </r>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr"/>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr"/>
+      <c r="G15" s="1" t="inlineStr"/>
+      <c r="H15" s="1" t="inlineStr"/>
       <c r="I15" s="1" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">45000</t>
-          </r>
-        </is>
-      </c>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="J15" s="1" t="inlineStr"/>
+      <c r="K15" s="1" t="inlineStr"/>
       <c r="L15" s="1" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">person1</t>
-          </r>
-        </is>
-      </c>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
+      <c r="M15" s="1" t="inlineStr"/>
+      <c r="N15" s="1" t="inlineStr"/>
+      <c r="O15" s="1" t="inlineStr"/>
       <c r="P15" s="1" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">123654</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q15" s="1" t="inlineStr"/>
       <c r="R15" s="1" t="inlineStr"/>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="T15" s="5" t="inlineStr"/>
+      <c r="S15" s="1" t="inlineStr"/>
+      <c r="T15" s="1" t="inlineStr"/>
       <c r="U15" s="1" t="inlineStr"/>
-      <c r="V15" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
+      <c r="V15" s="1" t="inlineStr"/>
       <c r="W15" s="1" t="inlineStr"/>
       <c r="X15" s="1" t="inlineStr"/>
-    </row>
-    <row r="16" customHeight="1" ht="880">
-      <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr"/>
-      <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
-      <c r="I16" s="1" t="inlineStr"/>
-      <c r="J16" s="1" t="inlineStr"/>
-      <c r="K16" s="1" t="inlineStr"/>
-      <c r="L16" s="1" t="inlineStr"/>
-      <c r="M16" s="1" t="inlineStr"/>
-      <c r="N16" s="1" t="inlineStr"/>
-      <c r="O16" s="1" t="inlineStr"/>
-      <c r="P16" s="1" t="inlineStr"/>
-      <c r="Q16" s="1" t="inlineStr"/>
-      <c r="R16" s="1" t="inlineStr"/>
-      <c r="S16" s="1" t="inlineStr"/>
-      <c r="T16" s="1" t="inlineStr"/>
-      <c r="U16" s="1" t="inlineStr"/>
-      <c r="V16" s="1" t="inlineStr"/>
-      <c r="W16" s="1" t="inlineStr"/>
-      <c r="X16" s="1" t="inlineStr"/>
+      <c r="Y15" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B2:F4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="N8:V9"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="M12:O13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="Q14:W14"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <drawing r:id="rIdDr1"/>
 </worksheet>
 </file>
--- a/DriverReport.xlsx
+++ b/DriverReport.xlsx
@@ -208,7 +208,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="861937754" name="Picture">
+        <xdr:cNvPr id="1530118022" name="Picture">
 </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>

--- a/DriverReport.xlsx
+++ b/DriverReport.xlsx
@@ -86,6 +86,16 @@
     </font>
     <font>
       <sz val="16.0"/>
+      <color rgb="000000"/>
+      <name val="SansSerif"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
       <color rgb="000000"/>
       <name val="SansSerif"/>
       <b val="false"/>
@@ -239,7 +249,7 @@
       <alignment wrapText="true" horizontal="center" vertical="center"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -267,14 +277,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1400424905" name="Picture">
+        <xdr:cNvPr id="1207888384" name="Picture">
 </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
@@ -313,20 +323,23 @@
     <col min="2" max="2" customWidth="1" width="0.16666667"/>
     <col min="3" max="3" customWidth="1" width="1.3333334"/>
     <col min="4" max="4" customWidth="1" width="0.16666667"/>
-    <col min="5" max="5" customWidth="1" width="21.666666"/>
-    <col min="6" max="6" customWidth="1" width="12.666667"/>
-    <col min="7" max="7" customWidth="1" width="4.0"/>
-    <col min="8" max="8" customWidth="1" width="16.5"/>
-    <col min="9" max="9" customWidth="1" width="18.5"/>
-    <col min="10" max="10" customWidth="1" width="11.0"/>
-    <col min="11" max="11" customWidth="1" width="19.0"/>
-    <col min="12" max="12" customWidth="1" width="8.833333"/>
-    <col min="13" max="13" customWidth="1" width="0.33333334"/>
-    <col min="14" max="14" customWidth="1" width="0.16666667"/>
-    <col min="15" max="15" customWidth="1" width="6.6666665"/>
-    <col min="16" max="16" customWidth="1" width="0.16666667"/>
-    <col min="17" max="17" customWidth="1" width="0.8333333"/>
-    <col min="18" max="18" customWidth="1" width="3.5"/>
+    <col min="5" max="5" customWidth="1" width="13.166667"/>
+    <col min="6" max="6" customWidth="1" width="8.5"/>
+    <col min="7" max="7" customWidth="1" width="12.666667"/>
+    <col min="8" max="8" customWidth="1" width="4.0"/>
+    <col min="9" max="9" customWidth="1" width="10.833333"/>
+    <col min="10" max="10" customWidth="1" width="11.666667"/>
+    <col min="11" max="11" customWidth="1" width="10.833333"/>
+    <col min="12" max="12" customWidth="1" width="1.6666666"/>
+    <col min="13" max="13" customWidth="1" width="11.0"/>
+    <col min="14" max="14" customWidth="1" width="4.0"/>
+    <col min="15" max="15" customWidth="1" width="15.0"/>
+    <col min="16" max="16" customWidth="1" width="1.1666666"/>
+    <col min="17" max="17" customWidth="1" width="8.166667"/>
+    <col min="18" max="18" customWidth="1" width="6.6666665"/>
+    <col min="19" max="19" customWidth="1" width="0.16666667"/>
+    <col min="20" max="20" customWidth="1" width="0.8333333"/>
+    <col min="21" max="21" customWidth="1" width="3.5"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="22">
@@ -348,6 +361,9 @@
       <c r="P1" s="1" t="inlineStr"/>
       <c r="Q1" s="1" t="inlineStr"/>
       <c r="R1" s="1" t="inlineStr"/>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr"/>
+      <c r="U1" s="1" t="inlineStr"/>
     </row>
     <row r="2" customHeight="1" ht="8">
       <c r="A2" s="1" t="inlineStr"/>
@@ -355,7 +371,7 @@
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="1" t="inlineStr"/>
       <c r="H2" s="1" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr"/>
@@ -368,6 +384,9 @@
       <c r="P2" s="1" t="inlineStr"/>
       <c r="Q2" s="1" t="inlineStr"/>
       <c r="R2" s="1" t="inlineStr"/>
+      <c r="S2" s="1" t="inlineStr"/>
+      <c r="T2" s="1" t="inlineStr"/>
+      <c r="U2" s="1" t="inlineStr"/>
     </row>
     <row r="3" customHeight="1" ht="34">
       <c r="A3" s="1" t="inlineStr"/>
@@ -375,25 +394,28 @@
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="1" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">إجمالي إنتاج المصفاة</t>
-          </r>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الفرز اليومي حسب نوع المادة</t>
+          </r>
+        </is>
+      </c>
       <c r="I3" s="3" t="inlineStr"/>
       <c r="J3" s="3" t="inlineStr"/>
-      <c r="K3" s="1" t="inlineStr"/>
-      <c r="L3" s="1" t="inlineStr"/>
-      <c r="M3" s="1" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
       <c r="N3" s="1" t="inlineStr"/>
       <c r="O3" s="1" t="inlineStr"/>
       <c r="P3" s="1" t="inlineStr"/>
       <c r="Q3" s="1" t="inlineStr"/>
       <c r="R3" s="1" t="inlineStr"/>
+      <c r="S3" s="1" t="inlineStr"/>
+      <c r="T3" s="1" t="inlineStr"/>
+      <c r="U3" s="1" t="inlineStr"/>
     </row>
     <row r="4" customHeight="1" ht="8">
       <c r="A4" s="1" t="inlineStr"/>
@@ -401,7 +423,7 @@
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="1" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="1" t="inlineStr"/>
       <c r="H4" s="1" t="inlineStr"/>
       <c r="I4" s="1" t="inlineStr"/>
@@ -414,6 +436,9 @@
       <c r="P4" s="1" t="inlineStr"/>
       <c r="Q4" s="1" t="inlineStr"/>
       <c r="R4" s="1" t="inlineStr"/>
+      <c r="S4" s="1" t="inlineStr"/>
+      <c r="T4" s="1" t="inlineStr"/>
+      <c r="U4" s="1" t="inlineStr"/>
     </row>
     <row r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="inlineStr"/>
@@ -434,6 +459,9 @@
       <c r="P5" s="1" t="inlineStr"/>
       <c r="Q5" s="1" t="inlineStr"/>
       <c r="R5" s="1" t="inlineStr"/>
+      <c r="S5" s="1" t="inlineStr"/>
+      <c r="T5" s="1" t="inlineStr"/>
+      <c r="U5" s="1" t="inlineStr"/>
     </row>
     <row r="6" customHeight="1" ht="27">
       <c r="A6" s="1" t="inlineStr"/>
@@ -442,30 +470,33 @@
       <c r="D6" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ref 1</t>
+            <t xml:space="preserve">material 1</t>
           </r>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="1" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="1" t="inlineStr"/>
       <c r="J6" s="1" t="inlineStr"/>
       <c r="K6" s="1" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr"/>
+      <c r="M6" s="1" t="inlineStr"/>
+      <c r="N6" s="1" t="inlineStr"/>
+      <c r="O6" s="1" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">المادة </t>
           </r>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="1" t="inlineStr"/>
-      <c r="R6" s="1" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="1" t="inlineStr"/>
+      <c r="U6" s="1" t="inlineStr"/>
     </row>
     <row r="7" customHeight="1" ht="1">
       <c r="A7" s="1" t="inlineStr"/>
@@ -475,13 +506,13 @@
       <c r="E7" s="6" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2025-07-31T20:04:25.336548500</t>
+            <t xml:space="preserve">2025-08-17T18:23:14.494078200</t>
           </r>
         </is>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
-      <c r="H7" s="1" t="inlineStr"/>
+      <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="1" t="inlineStr"/>
       <c r="J7" s="1" t="inlineStr"/>
       <c r="K7" s="1" t="inlineStr"/>
@@ -492,6 +523,9 @@
       <c r="P7" s="1" t="inlineStr"/>
       <c r="Q7" s="1" t="inlineStr"/>
       <c r="R7" s="1" t="inlineStr"/>
+      <c r="S7" s="1" t="inlineStr"/>
+      <c r="T7" s="1" t="inlineStr"/>
+      <c r="U7" s="1" t="inlineStr"/>
     </row>
     <row r="8" customHeight="1" ht="27">
       <c r="A8" s="1" t="inlineStr"/>
@@ -501,23 +535,26 @@
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="J8" s="1" t="inlineStr"/>
+      <c r="K8" s="1" t="inlineStr"/>
+      <c r="L8" s="1" t="inlineStr"/>
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">التقرير اليومي بتاريخ</t>
           </r>
         </is>
       </c>
-      <c r="K8" s="7" t="inlineStr"/>
-      <c r="L8" s="7" t="inlineStr"/>
-      <c r="M8" s="7" t="inlineStr"/>
       <c r="N8" s="7" t="inlineStr"/>
       <c r="O8" s="7" t="inlineStr"/>
-      <c r="P8" s="1" t="inlineStr"/>
-      <c r="Q8" s="1" t="inlineStr"/>
-      <c r="R8" s="1" t="inlineStr"/>
+      <c r="P8" s="7" t="inlineStr"/>
+      <c r="Q8" s="7" t="inlineStr"/>
+      <c r="R8" s="7" t="inlineStr"/>
+      <c r="S8" s="1" t="inlineStr"/>
+      <c r="T8" s="1" t="inlineStr"/>
+      <c r="U8" s="1" t="inlineStr"/>
     </row>
     <row r="9" customHeight="1" ht="1">
       <c r="A9" s="1" t="inlineStr"/>
@@ -529,15 +566,18 @@
       <c r="G9" s="1" t="inlineStr"/>
       <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-      <c r="K9" s="7" t="inlineStr"/>
-      <c r="L9" s="7" t="inlineStr"/>
+      <c r="J9" s="1" t="inlineStr"/>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="inlineStr"/>
       <c r="M9" s="7" t="inlineStr"/>
       <c r="N9" s="7" t="inlineStr"/>
       <c r="O9" s="7" t="inlineStr"/>
-      <c r="P9" s="1" t="inlineStr"/>
-      <c r="Q9" s="1" t="inlineStr"/>
-      <c r="R9" s="1" t="inlineStr"/>
+      <c r="P9" s="7" t="inlineStr"/>
+      <c r="Q9" s="7" t="inlineStr"/>
+      <c r="R9" s="7" t="inlineStr"/>
+      <c r="S9" s="1" t="inlineStr"/>
+      <c r="T9" s="1" t="inlineStr"/>
+      <c r="U9" s="1" t="inlineStr"/>
     </row>
     <row r="10" customHeight="1" ht="4">
       <c r="A10" s="1" t="inlineStr"/>
@@ -558,6 +598,9 @@
       <c r="P10" s="1" t="inlineStr"/>
       <c r="Q10" s="1" t="inlineStr"/>
       <c r="R10" s="1" t="inlineStr"/>
+      <c r="S10" s="1" t="inlineStr"/>
+      <c r="T10" s="1" t="inlineStr"/>
+      <c r="U10" s="1" t="inlineStr"/>
     </row>
     <row r="11" customHeight="1" ht="28">
       <c r="A11" s="1" t="inlineStr"/>
@@ -565,57 +608,153 @@
       <c r="C11" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">الكمية</t>
+            <t xml:space="preserve">التاريخ</t>
           </r>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الوجهة</t>
+          </r>
+        </is>
+      </c>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">المادة</t>
-          </r>
-        </is>
-      </c>
-      <c r="J11" s="9" t="inlineStr"/>
-      <c r="K11" s="9" t="inlineStr"/>
-      <c r="L11" s="9" t="inlineStr"/>
-      <c r="M11" s="1" t="inlineStr"/>
-      <c r="N11" s="1" t="inlineStr"/>
-      <c r="O11" s="10" t="inlineStr">
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">السعة</t>
+          </r>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الفئة</t>
+          </r>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">المصفاة</t>
+          </r>
+        </is>
+      </c>
+      <c r="L11" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">السائق</t>
+          </r>
+        </is>
+      </c>
+      <c r="M11" s="8" t="inlineStr"/>
+      <c r="N11" s="8" t="inlineStr"/>
+      <c r="O11" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">رقم المركبة</t>
+          </r>
+        </is>
+      </c>
+      <c r="P11" s="9" t="inlineStr"/>
+      <c r="Q11" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">المعرف</t>
+          </r>
+        </is>
+      </c>
+      <c r="R11" s="10" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">No.</t>
           </r>
         </is>
       </c>
-      <c r="P11" s="10" t="inlineStr"/>
-      <c r="Q11" s="10" t="inlineStr"/>
-      <c r="R11" s="1" t="inlineStr"/>
-    </row>
-    <row r="12" customHeight="1" ht="6">
+      <c r="S11" s="10" t="inlineStr"/>
+      <c r="T11" s="10" t="inlineStr"/>
+      <c r="U11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="30">
       <c r="A12" s="1" t="inlineStr"/>
       <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr"/>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="1" t="inlineStr"/>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="inlineStr"/>
-      <c r="M12" s="1" t="inlineStr"/>
-      <c r="N12" s="1" t="inlineStr"/>
-      <c r="O12" s="1" t="inlineStr"/>
-      <c r="P12" s="1" t="inlineStr"/>
-      <c r="Q12" s="1" t="inlineStr"/>
-      <c r="R12" s="1" t="inlineStr"/>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-07-30T21:01:53</t>
+          </r>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr"/>
+      <c r="E12" s="11" t="inlineStr"/>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G12" s="12" t="inlineStr"/>
+      <c r="H12" s="12" t="inlineStr"/>
+      <c r="I12" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J12" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K12" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L12" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M12" s="12" t="inlineStr"/>
+      <c r="N12" s="12" t="inlineStr"/>
+      <c r="O12" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P12" s="12" t="inlineStr"/>
+      <c r="Q12" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="R12" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1</t>
+          </r>
+        </is>
+      </c>
+      <c r="S12" s="13" t="inlineStr"/>
+      <c r="T12" s="13" t="inlineStr"/>
+      <c r="U12" s="1" t="inlineStr"/>
     </row>
     <row r="13" customHeight="1" ht="30">
       <c r="A13" s="1" t="inlineStr"/>
@@ -623,57 +762,153 @@
       <c r="C13" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">2025-08-17T13:31:31</t>
           </r>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr"/>
-      <c r="F13" s="11" t="inlineStr"/>
-      <c r="G13" s="11" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr"/>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G13" s="12" t="inlineStr"/>
+      <c r="H13" s="12" t="inlineStr"/>
       <c r="I13" s="12" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">material 1</t>
-          </r>
-        </is>
-      </c>
-      <c r="J13" s="12" t="inlineStr"/>
-      <c r="K13" s="12" t="inlineStr"/>
-      <c r="L13" s="12" t="inlineStr"/>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J13" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K13" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L13" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
       <c r="M13" s="12" t="inlineStr"/>
-      <c r="N13" s="1" t="inlineStr"/>
-      <c r="O13" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="P13" s="13" t="inlineStr"/>
-      <c r="Q13" s="13" t="inlineStr"/>
-      <c r="R13" s="1" t="inlineStr"/>
-    </row>
-    <row r="14" customHeight="1" ht="6">
+      <c r="N13" s="12" t="inlineStr"/>
+      <c r="O13" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P13" s="12" t="inlineStr"/>
+      <c r="Q13" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3</t>
+          </r>
+        </is>
+      </c>
+      <c r="R13" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="S13" s="13" t="inlineStr"/>
+      <c r="T13" s="13" t="inlineStr"/>
+      <c r="U13" s="1" t="inlineStr"/>
+    </row>
+    <row r="14" customHeight="1" ht="30">
       <c r="A14" s="1" t="inlineStr"/>
       <c r="B14" s="1" t="inlineStr"/>
-      <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="1" t="inlineStr"/>
-      <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="1" t="inlineStr"/>
-      <c r="K14" s="1" t="inlineStr"/>
-      <c r="L14" s="1" t="inlineStr"/>
-      <c r="M14" s="1" t="inlineStr"/>
-      <c r="N14" s="1" t="inlineStr"/>
-      <c r="O14" s="1" t="inlineStr"/>
-      <c r="P14" s="1" t="inlineStr"/>
-      <c r="Q14" s="1" t="inlineStr"/>
-      <c r="R14" s="1" t="inlineStr"/>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:18:44</t>
+          </r>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr"/>
+      <c r="E14" s="11" t="inlineStr"/>
+      <c r="F14" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G14" s="12" t="inlineStr"/>
+      <c r="H14" s="12" t="inlineStr"/>
+      <c r="I14" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J14" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K14" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L14" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M14" s="12" t="inlineStr"/>
+      <c r="N14" s="12" t="inlineStr"/>
+      <c r="O14" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P14" s="12" t="inlineStr"/>
+      <c r="Q14" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">4</t>
+          </r>
+        </is>
+      </c>
+      <c r="R14" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3</t>
+          </r>
+        </is>
+      </c>
+      <c r="S14" s="13" t="inlineStr"/>
+      <c r="T14" s="13" t="inlineStr"/>
+      <c r="U14" s="1" t="inlineStr"/>
     </row>
     <row r="15" customHeight="1" ht="30">
       <c r="A15" s="1" t="inlineStr"/>
@@ -681,75 +916,2618 @@
       <c r="C15" s="11" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">25000</t>
+            <t xml:space="preserve">2025-08-17T17:20:13</t>
           </r>
         </is>
       </c>
       <c r="D15" s="11" t="inlineStr"/>
       <c r="E15" s="11" t="inlineStr"/>
-      <c r="F15" s="11" t="inlineStr"/>
-      <c r="G15" s="11" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr"/>
+      <c r="F15" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G15" s="12" t="inlineStr"/>
+      <c r="H15" s="12" t="inlineStr"/>
       <c r="I15" s="12" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">material 2</t>
-          </r>
-        </is>
-      </c>
-      <c r="J15" s="12" t="inlineStr"/>
-      <c r="K15" s="12" t="inlineStr"/>
-      <c r="L15" s="12" t="inlineStr"/>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J15" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K15" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 2</t>
+          </r>
+        </is>
+      </c>
+      <c r="L15" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
       <c r="M15" s="12" t="inlineStr"/>
-      <c r="N15" s="1" t="inlineStr"/>
-      <c r="O15" s="13" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="P15" s="13" t="inlineStr"/>
-      <c r="Q15" s="13" t="inlineStr"/>
-      <c r="R15" s="1" t="inlineStr"/>
-    </row>
-    <row r="16" customHeight="1" ht="844">
+      <c r="N15" s="12" t="inlineStr"/>
+      <c r="O15" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P15" s="12" t="inlineStr"/>
+      <c r="Q15" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6</t>
+          </r>
+        </is>
+      </c>
+      <c r="R15" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">4</t>
+          </r>
+        </is>
+      </c>
+      <c r="S15" s="13" t="inlineStr"/>
+      <c r="T15" s="13" t="inlineStr"/>
+      <c r="U15" s="1" t="inlineStr"/>
+    </row>
+    <row r="16" customHeight="1" ht="30">
       <c r="A16" s="1" t="inlineStr"/>
       <c r="B16" s="1" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1" t="inlineStr"/>
-      <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
-      <c r="I16" s="1" t="inlineStr"/>
-      <c r="J16" s="1" t="inlineStr"/>
-      <c r="K16" s="1" t="inlineStr"/>
-      <c r="L16" s="1" t="inlineStr"/>
-      <c r="M16" s="1" t="inlineStr"/>
-      <c r="N16" s="1" t="inlineStr"/>
-      <c r="O16" s="1" t="inlineStr"/>
-      <c r="P16" s="1" t="inlineStr"/>
-      <c r="Q16" s="1" t="inlineStr"/>
-      <c r="R16" s="1" t="inlineStr"/>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:21:57</t>
+          </r>
+        </is>
+      </c>
+      <c r="D16" s="11" t="inlineStr"/>
+      <c r="E16" s="11" t="inlineStr"/>
+      <c r="F16" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr"/>
+      <c r="H16" s="12" t="inlineStr"/>
+      <c r="I16" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J16" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K16" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L16" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M16" s="12" t="inlineStr"/>
+      <c r="N16" s="12" t="inlineStr"/>
+      <c r="O16" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P16" s="12" t="inlineStr"/>
+      <c r="Q16" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="R16" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="S16" s="13" t="inlineStr"/>
+      <c r="T16" s="13" t="inlineStr"/>
+      <c r="U16" s="1" t="inlineStr"/>
+    </row>
+    <row r="17" customHeight="1" ht="30">
+      <c r="A17" s="1" t="inlineStr"/>
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:22:46</t>
+          </r>
+        </is>
+      </c>
+      <c r="D17" s="11" t="inlineStr"/>
+      <c r="E17" s="11" t="inlineStr"/>
+      <c r="F17" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G17" s="12" t="inlineStr"/>
+      <c r="H17" s="12" t="inlineStr"/>
+      <c r="I17" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J17" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K17" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L17" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M17" s="12" t="inlineStr"/>
+      <c r="N17" s="12" t="inlineStr"/>
+      <c r="O17" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P17" s="12" t="inlineStr"/>
+      <c r="Q17" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="R17" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6</t>
+          </r>
+        </is>
+      </c>
+      <c r="S17" s="13" t="inlineStr"/>
+      <c r="T17" s="13" t="inlineStr"/>
+      <c r="U17" s="1" t="inlineStr"/>
+    </row>
+    <row r="18" customHeight="1" ht="30">
+      <c r="A18" s="1" t="inlineStr"/>
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:23:31</t>
+          </r>
+        </is>
+      </c>
+      <c r="D18" s="11" t="inlineStr"/>
+      <c r="E18" s="11" t="inlineStr"/>
+      <c r="F18" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G18" s="12" t="inlineStr"/>
+      <c r="H18" s="12" t="inlineStr"/>
+      <c r="I18" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J18" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K18" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L18" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M18" s="12" t="inlineStr"/>
+      <c r="N18" s="12" t="inlineStr"/>
+      <c r="O18" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P18" s="12" t="inlineStr"/>
+      <c r="Q18" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="R18" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="S18" s="13" t="inlineStr"/>
+      <c r="T18" s="13" t="inlineStr"/>
+      <c r="U18" s="1" t="inlineStr"/>
+    </row>
+    <row r="19" customHeight="1" ht="30">
+      <c r="A19" s="1" t="inlineStr"/>
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:24:23</t>
+          </r>
+        </is>
+      </c>
+      <c r="D19" s="11" t="inlineStr"/>
+      <c r="E19" s="11" t="inlineStr"/>
+      <c r="F19" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 2</t>
+          </r>
+        </is>
+      </c>
+      <c r="G19" s="12" t="inlineStr"/>
+      <c r="H19" s="12" t="inlineStr"/>
+      <c r="I19" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J19" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K19" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L19" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M19" s="12" t="inlineStr"/>
+      <c r="N19" s="12" t="inlineStr"/>
+      <c r="O19" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P19" s="12" t="inlineStr"/>
+      <c r="Q19" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10</t>
+          </r>
+        </is>
+      </c>
+      <c r="R19" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="S19" s="13" t="inlineStr"/>
+      <c r="T19" s="13" t="inlineStr"/>
+      <c r="U19" s="1" t="inlineStr"/>
+    </row>
+    <row r="20" customHeight="1" ht="30">
+      <c r="A20" s="1" t="inlineStr"/>
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:24:53</t>
+          </r>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G20" s="12" t="inlineStr"/>
+      <c r="H20" s="12" t="inlineStr"/>
+      <c r="I20" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J20" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K20" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L20" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M20" s="12" t="inlineStr"/>
+      <c r="N20" s="12" t="inlineStr"/>
+      <c r="O20" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P20" s="12" t="inlineStr"/>
+      <c r="Q20" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11</t>
+          </r>
+        </is>
+      </c>
+      <c r="R20" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="S20" s="13" t="inlineStr"/>
+      <c r="T20" s="13" t="inlineStr"/>
+      <c r="U20" s="1" t="inlineStr"/>
+    </row>
+    <row r="21" customHeight="1" ht="30">
+      <c r="A21" s="1" t="inlineStr"/>
+      <c r="B21" s="1" t="inlineStr"/>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:25:31</t>
+          </r>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G21" s="12" t="inlineStr"/>
+      <c r="H21" s="12" t="inlineStr"/>
+      <c r="I21" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J21" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K21" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L21" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M21" s="12" t="inlineStr"/>
+      <c r="N21" s="12" t="inlineStr"/>
+      <c r="O21" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P21" s="12" t="inlineStr"/>
+      <c r="Q21" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="R21" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10</t>
+          </r>
+        </is>
+      </c>
+      <c r="S21" s="13" t="inlineStr"/>
+      <c r="T21" s="13" t="inlineStr"/>
+      <c r="U21" s="1" t="inlineStr"/>
+    </row>
+    <row r="22" customHeight="1" ht="30">
+      <c r="A22" s="1" t="inlineStr"/>
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:26:04</t>
+          </r>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr"/>
+      <c r="H22" s="12" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J22" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K22" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L22" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M22" s="12" t="inlineStr"/>
+      <c r="N22" s="12" t="inlineStr"/>
+      <c r="O22" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P22" s="12" t="inlineStr"/>
+      <c r="Q22" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="R22" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11</t>
+          </r>
+        </is>
+      </c>
+      <c r="S22" s="13" t="inlineStr"/>
+      <c r="T22" s="13" t="inlineStr"/>
+      <c r="U22" s="1" t="inlineStr"/>
+    </row>
+    <row r="23" customHeight="1" ht="30">
+      <c r="A23" s="1" t="inlineStr"/>
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:27:18</t>
+          </r>
+        </is>
+      </c>
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G23" s="12" t="inlineStr"/>
+      <c r="H23" s="12" t="inlineStr"/>
+      <c r="I23" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J23" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K23" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L23" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M23" s="12" t="inlineStr"/>
+      <c r="N23" s="12" t="inlineStr"/>
+      <c r="O23" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P23" s="12" t="inlineStr"/>
+      <c r="Q23" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">14</t>
+          </r>
+        </is>
+      </c>
+      <c r="R23" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="S23" s="13" t="inlineStr"/>
+      <c r="T23" s="13" t="inlineStr"/>
+      <c r="U23" s="1" t="inlineStr"/>
+    </row>
+    <row r="24" customHeight="1" ht="30">
+      <c r="A24" s="1" t="inlineStr"/>
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:28:08</t>
+          </r>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G24" s="12" t="inlineStr"/>
+      <c r="H24" s="12" t="inlineStr"/>
+      <c r="I24" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J24" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K24" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L24" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M24" s="12" t="inlineStr"/>
+      <c r="N24" s="12" t="inlineStr"/>
+      <c r="O24" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P24" s="12" t="inlineStr"/>
+      <c r="Q24" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">15</t>
+          </r>
+        </is>
+      </c>
+      <c r="R24" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="S24" s="13" t="inlineStr"/>
+      <c r="T24" s="13" t="inlineStr"/>
+      <c r="U24" s="1" t="inlineStr"/>
+    </row>
+    <row r="25" customHeight="1" ht="30">
+      <c r="A25" s="1" t="inlineStr"/>
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:28:50</t>
+          </r>
+        </is>
+      </c>
+      <c r="D25" s="11" t="inlineStr"/>
+      <c r="E25" s="11" t="inlineStr"/>
+      <c r="F25" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G25" s="12" t="inlineStr"/>
+      <c r="H25" s="12" t="inlineStr"/>
+      <c r="I25" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J25" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K25" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L25" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M25" s="12" t="inlineStr"/>
+      <c r="N25" s="12" t="inlineStr"/>
+      <c r="O25" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P25" s="12" t="inlineStr"/>
+      <c r="Q25" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="R25" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">14</t>
+          </r>
+        </is>
+      </c>
+      <c r="S25" s="13" t="inlineStr"/>
+      <c r="T25" s="13" t="inlineStr"/>
+      <c r="U25" s="1" t="inlineStr"/>
+    </row>
+    <row r="26" customHeight="1" ht="30">
+      <c r="A26" s="1" t="inlineStr"/>
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:30:05</t>
+          </r>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr"/>
+      <c r="E26" s="11" t="inlineStr"/>
+      <c r="F26" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G26" s="12" t="inlineStr"/>
+      <c r="H26" s="12" t="inlineStr"/>
+      <c r="I26" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J26" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K26" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L26" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M26" s="12" t="inlineStr"/>
+      <c r="N26" s="12" t="inlineStr"/>
+      <c r="O26" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P26" s="12" t="inlineStr"/>
+      <c r="Q26" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="R26" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">15</t>
+          </r>
+        </is>
+      </c>
+      <c r="S26" s="13" t="inlineStr"/>
+      <c r="T26" s="13" t="inlineStr"/>
+      <c r="U26" s="1" t="inlineStr"/>
+    </row>
+    <row r="27" customHeight="1" ht="30">
+      <c r="A27" s="1" t="inlineStr"/>
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:32:17</t>
+          </r>
+        </is>
+      </c>
+      <c r="D27" s="11" t="inlineStr"/>
+      <c r="E27" s="11" t="inlineStr"/>
+      <c r="F27" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G27" s="12" t="inlineStr"/>
+      <c r="H27" s="12" t="inlineStr"/>
+      <c r="I27" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J27" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K27" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L27" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M27" s="12" t="inlineStr"/>
+      <c r="N27" s="12" t="inlineStr"/>
+      <c r="O27" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P27" s="12" t="inlineStr"/>
+      <c r="Q27" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="R27" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="S27" s="13" t="inlineStr"/>
+      <c r="T27" s="13" t="inlineStr"/>
+      <c r="U27" s="1" t="inlineStr"/>
+    </row>
+    <row r="28" customHeight="1" ht="30">
+      <c r="A28" s="1" t="inlineStr"/>
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:33:03</t>
+          </r>
+        </is>
+      </c>
+      <c r="D28" s="11" t="inlineStr"/>
+      <c r="E28" s="11" t="inlineStr"/>
+      <c r="F28" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G28" s="12" t="inlineStr"/>
+      <c r="H28" s="12" t="inlineStr"/>
+      <c r="I28" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J28" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K28" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L28" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M28" s="12" t="inlineStr"/>
+      <c r="N28" s="12" t="inlineStr"/>
+      <c r="O28" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P28" s="12" t="inlineStr"/>
+      <c r="Q28" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">19</t>
+          </r>
+        </is>
+      </c>
+      <c r="R28" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="S28" s="13" t="inlineStr"/>
+      <c r="T28" s="13" t="inlineStr"/>
+      <c r="U28" s="1" t="inlineStr"/>
+    </row>
+    <row r="29" customHeight="1" ht="30">
+      <c r="A29" s="1" t="inlineStr"/>
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:33:38</t>
+          </r>
+        </is>
+      </c>
+      <c r="D29" s="11" t="inlineStr"/>
+      <c r="E29" s="11" t="inlineStr"/>
+      <c r="F29" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G29" s="12" t="inlineStr"/>
+      <c r="H29" s="12" t="inlineStr"/>
+      <c r="I29" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J29" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K29" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L29" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M29" s="12" t="inlineStr"/>
+      <c r="N29" s="12" t="inlineStr"/>
+      <c r="O29" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P29" s="12" t="inlineStr"/>
+      <c r="Q29" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="R29" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="S29" s="13" t="inlineStr"/>
+      <c r="T29" s="13" t="inlineStr"/>
+      <c r="U29" s="1" t="inlineStr"/>
+    </row>
+    <row r="30" customHeight="1" ht="30">
+      <c r="A30" s="1" t="inlineStr"/>
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:35:23</t>
+          </r>
+        </is>
+      </c>
+      <c r="D30" s="11" t="inlineStr"/>
+      <c r="E30" s="11" t="inlineStr"/>
+      <c r="F30" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G30" s="12" t="inlineStr"/>
+      <c r="H30" s="12" t="inlineStr"/>
+      <c r="I30" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J30" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K30" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L30" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M30" s="12" t="inlineStr"/>
+      <c r="N30" s="12" t="inlineStr"/>
+      <c r="O30" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P30" s="12" t="inlineStr"/>
+      <c r="Q30" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">21</t>
+          </r>
+        </is>
+      </c>
+      <c r="R30" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">19</t>
+          </r>
+        </is>
+      </c>
+      <c r="S30" s="13" t="inlineStr"/>
+      <c r="T30" s="13" t="inlineStr"/>
+      <c r="U30" s="1" t="inlineStr"/>
+    </row>
+    <row r="31" customHeight="1" ht="30">
+      <c r="A31" s="1" t="inlineStr"/>
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:37:03</t>
+          </r>
+        </is>
+      </c>
+      <c r="D31" s="11" t="inlineStr"/>
+      <c r="E31" s="11" t="inlineStr"/>
+      <c r="F31" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G31" s="12" t="inlineStr"/>
+      <c r="H31" s="12" t="inlineStr"/>
+      <c r="I31" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J31" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K31" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L31" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M31" s="12" t="inlineStr"/>
+      <c r="N31" s="12" t="inlineStr"/>
+      <c r="O31" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P31" s="12" t="inlineStr"/>
+      <c r="Q31" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">22</t>
+          </r>
+        </is>
+      </c>
+      <c r="R31" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="S31" s="13" t="inlineStr"/>
+      <c r="T31" s="13" t="inlineStr"/>
+      <c r="U31" s="1" t="inlineStr"/>
+    </row>
+    <row r="32" customHeight="1" ht="30">
+      <c r="A32" s="1" t="inlineStr"/>
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:37:43</t>
+          </r>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G32" s="12" t="inlineStr"/>
+      <c r="H32" s="12" t="inlineStr"/>
+      <c r="I32" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J32" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K32" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L32" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M32" s="12" t="inlineStr"/>
+      <c r="N32" s="12" t="inlineStr"/>
+      <c r="O32" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P32" s="12" t="inlineStr"/>
+      <c r="Q32" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">23</t>
+          </r>
+        </is>
+      </c>
+      <c r="R32" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">21</t>
+          </r>
+        </is>
+      </c>
+      <c r="S32" s="13" t="inlineStr"/>
+      <c r="T32" s="13" t="inlineStr"/>
+      <c r="U32" s="1" t="inlineStr"/>
+    </row>
+    <row r="33" customHeight="1" ht="30">
+      <c r="A33" s="1" t="inlineStr"/>
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:39:09</t>
+          </r>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G33" s="12" t="inlineStr"/>
+      <c r="H33" s="12" t="inlineStr"/>
+      <c r="I33" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J33" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K33" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L33" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M33" s="12" t="inlineStr"/>
+      <c r="N33" s="12" t="inlineStr"/>
+      <c r="O33" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P33" s="12" t="inlineStr"/>
+      <c r="Q33" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">24</t>
+          </r>
+        </is>
+      </c>
+      <c r="R33" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">22</t>
+          </r>
+        </is>
+      </c>
+      <c r="S33" s="13" t="inlineStr"/>
+      <c r="T33" s="13" t="inlineStr"/>
+      <c r="U33" s="1" t="inlineStr"/>
+    </row>
+    <row r="34" customHeight="1" ht="30">
+      <c r="A34" s="1" t="inlineStr"/>
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:40:10</t>
+          </r>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G34" s="12" t="inlineStr"/>
+      <c r="H34" s="12" t="inlineStr"/>
+      <c r="I34" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J34" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K34" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L34" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M34" s="12" t="inlineStr"/>
+      <c r="N34" s="12" t="inlineStr"/>
+      <c r="O34" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P34" s="12" t="inlineStr"/>
+      <c r="Q34" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25</t>
+          </r>
+        </is>
+      </c>
+      <c r="R34" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">23</t>
+          </r>
+        </is>
+      </c>
+      <c r="S34" s="13" t="inlineStr"/>
+      <c r="T34" s="13" t="inlineStr"/>
+      <c r="U34" s="1" t="inlineStr"/>
+    </row>
+    <row r="35" customHeight="1" ht="30">
+      <c r="A35" s="1" t="inlineStr"/>
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:40:53</t>
+          </r>
+        </is>
+      </c>
+      <c r="D35" s="11" t="inlineStr"/>
+      <c r="E35" s="11" t="inlineStr"/>
+      <c r="F35" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G35" s="12" t="inlineStr"/>
+      <c r="H35" s="12" t="inlineStr"/>
+      <c r="I35" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J35" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K35" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L35" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M35" s="12" t="inlineStr"/>
+      <c r="N35" s="12" t="inlineStr"/>
+      <c r="O35" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P35" s="12" t="inlineStr"/>
+      <c r="Q35" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">26</t>
+          </r>
+        </is>
+      </c>
+      <c r="R35" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">24</t>
+          </r>
+        </is>
+      </c>
+      <c r="S35" s="13" t="inlineStr"/>
+      <c r="T35" s="13" t="inlineStr"/>
+      <c r="U35" s="1" t="inlineStr"/>
+    </row>
+    <row r="36" customHeight="1" ht="30">
+      <c r="A36" s="1" t="inlineStr"/>
+      <c r="B36" s="1" t="inlineStr"/>
+      <c r="C36" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:41:57</t>
+          </r>
+        </is>
+      </c>
+      <c r="D36" s="11" t="inlineStr"/>
+      <c r="E36" s="11" t="inlineStr"/>
+      <c r="F36" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G36" s="12" t="inlineStr"/>
+      <c r="H36" s="12" t="inlineStr"/>
+      <c r="I36" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J36" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K36" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L36" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M36" s="12" t="inlineStr"/>
+      <c r="N36" s="12" t="inlineStr"/>
+      <c r="O36" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P36" s="12" t="inlineStr"/>
+      <c r="Q36" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">27</t>
+          </r>
+        </is>
+      </c>
+      <c r="R36" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25</t>
+          </r>
+        </is>
+      </c>
+      <c r="S36" s="13" t="inlineStr"/>
+      <c r="T36" s="13" t="inlineStr"/>
+      <c r="U36" s="1" t="inlineStr"/>
+    </row>
+    <row r="37" customHeight="1" ht="30">
+      <c r="A37" s="1" t="inlineStr"/>
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:42:31</t>
+          </r>
+        </is>
+      </c>
+      <c r="D37" s="11" t="inlineStr"/>
+      <c r="E37" s="11" t="inlineStr"/>
+      <c r="F37" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G37" s="12" t="inlineStr"/>
+      <c r="H37" s="12" t="inlineStr"/>
+      <c r="I37" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J37" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K37" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L37" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M37" s="12" t="inlineStr"/>
+      <c r="N37" s="12" t="inlineStr"/>
+      <c r="O37" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P37" s="12" t="inlineStr"/>
+      <c r="Q37" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">28</t>
+          </r>
+        </is>
+      </c>
+      <c r="R37" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">26</t>
+          </r>
+        </is>
+      </c>
+      <c r="S37" s="13" t="inlineStr"/>
+      <c r="T37" s="13" t="inlineStr"/>
+      <c r="U37" s="1" t="inlineStr"/>
+    </row>
+    <row r="38" customHeight="1" ht="30">
+      <c r="A38" s="1" t="inlineStr"/>
+      <c r="B38" s="1" t="inlineStr"/>
+      <c r="C38" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:44:32</t>
+          </r>
+        </is>
+      </c>
+      <c r="D38" s="11" t="inlineStr"/>
+      <c r="E38" s="11" t="inlineStr"/>
+      <c r="F38" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G38" s="12" t="inlineStr"/>
+      <c r="H38" s="12" t="inlineStr"/>
+      <c r="I38" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J38" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K38" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L38" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M38" s="12" t="inlineStr"/>
+      <c r="N38" s="12" t="inlineStr"/>
+      <c r="O38" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P38" s="12" t="inlineStr"/>
+      <c r="Q38" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">29</t>
+          </r>
+        </is>
+      </c>
+      <c r="R38" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">27</t>
+          </r>
+        </is>
+      </c>
+      <c r="S38" s="13" t="inlineStr"/>
+      <c r="T38" s="13" t="inlineStr"/>
+      <c r="U38" s="1" t="inlineStr"/>
+    </row>
+    <row r="39" customHeight="1" ht="30">
+      <c r="A39" s="1" t="inlineStr"/>
+      <c r="B39" s="1" t="inlineStr"/>
+      <c r="C39" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:45:04</t>
+          </r>
+        </is>
+      </c>
+      <c r="D39" s="11" t="inlineStr"/>
+      <c r="E39" s="11" t="inlineStr"/>
+      <c r="F39" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G39" s="12" t="inlineStr"/>
+      <c r="H39" s="12" t="inlineStr"/>
+      <c r="I39" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J39" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K39" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L39" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M39" s="12" t="inlineStr"/>
+      <c r="N39" s="12" t="inlineStr"/>
+      <c r="O39" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P39" s="12" t="inlineStr"/>
+      <c r="Q39" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30</t>
+          </r>
+        </is>
+      </c>
+      <c r="R39" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">28</t>
+          </r>
+        </is>
+      </c>
+      <c r="S39" s="13" t="inlineStr"/>
+      <c r="T39" s="13" t="inlineStr"/>
+      <c r="U39" s="1" t="inlineStr"/>
+    </row>
+    <row r="40" customHeight="1" ht="30">
+      <c r="A40" s="1" t="inlineStr"/>
+      <c r="B40" s="1" t="inlineStr"/>
+      <c r="C40" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:45:35</t>
+          </r>
+        </is>
+      </c>
+      <c r="D40" s="11" t="inlineStr"/>
+      <c r="E40" s="11" t="inlineStr"/>
+      <c r="F40" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G40" s="12" t="inlineStr"/>
+      <c r="H40" s="12" t="inlineStr"/>
+      <c r="I40" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J40" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K40" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L40" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M40" s="12" t="inlineStr"/>
+      <c r="N40" s="12" t="inlineStr"/>
+      <c r="O40" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P40" s="12" t="inlineStr"/>
+      <c r="Q40" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">31</t>
+          </r>
+        </is>
+      </c>
+      <c r="R40" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">29</t>
+          </r>
+        </is>
+      </c>
+      <c r="S40" s="13" t="inlineStr"/>
+      <c r="T40" s="13" t="inlineStr"/>
+      <c r="U40" s="1" t="inlineStr"/>
+    </row>
+    <row r="41" customHeight="1" ht="46">
+      <c r="A41" s="1" t="inlineStr"/>
+      <c r="B41" s="1" t="inlineStr"/>
+      <c r="C41" s="1" t="inlineStr"/>
+      <c r="D41" s="1" t="inlineStr"/>
+      <c r="E41" s="1" t="inlineStr"/>
+      <c r="F41" s="1" t="inlineStr"/>
+      <c r="G41" s="1" t="inlineStr"/>
+      <c r="H41" s="1" t="inlineStr"/>
+      <c r="I41" s="1" t="inlineStr"/>
+      <c r="J41" s="1" t="inlineStr"/>
+      <c r="K41" s="1" t="inlineStr"/>
+      <c r="L41" s="1" t="inlineStr"/>
+      <c r="M41" s="1" t="inlineStr"/>
+      <c r="N41" s="1" t="inlineStr"/>
+      <c r="O41" s="1" t="inlineStr"/>
+      <c r="P41" s="1" t="inlineStr"/>
+      <c r="Q41" s="1" t="inlineStr"/>
+      <c r="R41" s="1" t="inlineStr"/>
+      <c r="S41" s="1" t="inlineStr"/>
+      <c r="T41" s="1" t="inlineStr"/>
+      <c r="U41" s="1" t="inlineStr"/>
+    </row>
+    <row r="42" customHeight="1" ht="22">
+      <c r="A42" s="1" t="inlineStr"/>
+      <c r="B42" s="1" t="inlineStr"/>
+      <c r="C42" s="1" t="inlineStr"/>
+      <c r="D42" s="1" t="inlineStr"/>
+      <c r="E42" s="1" t="inlineStr"/>
+      <c r="F42" s="1" t="inlineStr"/>
+      <c r="G42" s="1" t="inlineStr"/>
+      <c r="H42" s="1" t="inlineStr"/>
+      <c r="I42" s="1" t="inlineStr"/>
+      <c r="J42" s="1" t="inlineStr"/>
+      <c r="K42" s="1" t="inlineStr"/>
+      <c r="L42" s="1" t="inlineStr"/>
+      <c r="M42" s="1" t="inlineStr"/>
+      <c r="N42" s="1" t="inlineStr"/>
+      <c r="O42" s="1" t="inlineStr"/>
+      <c r="P42" s="1" t="inlineStr"/>
+      <c r="Q42" s="1" t="inlineStr"/>
+      <c r="R42" s="1" t="inlineStr"/>
+      <c r="S42" s="1" t="inlineStr"/>
+      <c r="T42" s="1" t="inlineStr"/>
+      <c r="U42" s="1" t="inlineStr"/>
+    </row>
+    <row r="43" customHeight="1" ht="27">
+      <c r="A43" s="1" t="inlineStr"/>
+      <c r="B43" s="1" t="inlineStr"/>
+      <c r="C43" s="1" t="inlineStr"/>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">material 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
+      <c r="G43" s="4" t="inlineStr"/>
+      <c r="H43" s="4" t="inlineStr"/>
+      <c r="I43" s="1" t="inlineStr"/>
+      <c r="J43" s="1" t="inlineStr"/>
+      <c r="K43" s="1" t="inlineStr"/>
+      <c r="L43" s="1" t="inlineStr"/>
+      <c r="M43" s="1" t="inlineStr"/>
+      <c r="N43" s="1" t="inlineStr"/>
+      <c r="O43" s="1" t="inlineStr"/>
+      <c r="P43" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">المادة </t>
+          </r>
+        </is>
+      </c>
+      <c r="Q43" s="5" t="inlineStr"/>
+      <c r="R43" s="5" t="inlineStr"/>
+      <c r="S43" s="5" t="inlineStr"/>
+      <c r="T43" s="1" t="inlineStr"/>
+      <c r="U43" s="1" t="inlineStr"/>
+    </row>
+    <row r="44" customHeight="1" ht="1">
+      <c r="A44" s="1" t="inlineStr"/>
+      <c r="B44" s="1" t="inlineStr"/>
+      <c r="C44" s="1" t="inlineStr"/>
+      <c r="D44" s="1" t="inlineStr"/>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T18:23:14.494078200</t>
+          </r>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr"/>
+      <c r="G44" s="6" t="inlineStr"/>
+      <c r="H44" s="6" t="inlineStr"/>
+      <c r="I44" s="1" t="inlineStr"/>
+      <c r="J44" s="1" t="inlineStr"/>
+      <c r="K44" s="1" t="inlineStr"/>
+      <c r="L44" s="1" t="inlineStr"/>
+      <c r="M44" s="1" t="inlineStr"/>
+      <c r="N44" s="1" t="inlineStr"/>
+      <c r="O44" s="1" t="inlineStr"/>
+      <c r="P44" s="1" t="inlineStr"/>
+      <c r="Q44" s="1" t="inlineStr"/>
+      <c r="R44" s="1" t="inlineStr"/>
+      <c r="S44" s="1" t="inlineStr"/>
+      <c r="T44" s="1" t="inlineStr"/>
+      <c r="U44" s="1" t="inlineStr"/>
+    </row>
+    <row r="45" customHeight="1" ht="27">
+      <c r="A45" s="1" t="inlineStr"/>
+      <c r="B45" s="1" t="inlineStr"/>
+      <c r="C45" s="1" t="inlineStr"/>
+      <c r="D45" s="1" t="inlineStr"/>
+      <c r="E45" s="6" t="inlineStr"/>
+      <c r="F45" s="6" t="inlineStr"/>
+      <c r="G45" s="6" t="inlineStr"/>
+      <c r="H45" s="6" t="inlineStr"/>
+      <c r="I45" s="1" t="inlineStr"/>
+      <c r="J45" s="1" t="inlineStr"/>
+      <c r="K45" s="1" t="inlineStr"/>
+      <c r="L45" s="1" t="inlineStr"/>
+      <c r="M45" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">التقرير اليومي بتاريخ</t>
+          </r>
+        </is>
+      </c>
+      <c r="N45" s="7" t="inlineStr"/>
+      <c r="O45" s="7" t="inlineStr"/>
+      <c r="P45" s="7" t="inlineStr"/>
+      <c r="Q45" s="7" t="inlineStr"/>
+      <c r="R45" s="7" t="inlineStr"/>
+      <c r="S45" s="1" t="inlineStr"/>
+      <c r="T45" s="1" t="inlineStr"/>
+      <c r="U45" s="1" t="inlineStr"/>
+    </row>
+    <row r="46" customHeight="1" ht="1">
+      <c r="A46" s="1" t="inlineStr"/>
+      <c r="B46" s="1" t="inlineStr"/>
+      <c r="C46" s="1" t="inlineStr"/>
+      <c r="D46" s="1" t="inlineStr"/>
+      <c r="E46" s="1" t="inlineStr"/>
+      <c r="F46" s="1" t="inlineStr"/>
+      <c r="G46" s="1" t="inlineStr"/>
+      <c r="H46" s="1" t="inlineStr"/>
+      <c r="I46" s="1" t="inlineStr"/>
+      <c r="J46" s="1" t="inlineStr"/>
+      <c r="K46" s="1" t="inlineStr"/>
+      <c r="L46" s="1" t="inlineStr"/>
+      <c r="M46" s="7" t="inlineStr"/>
+      <c r="N46" s="7" t="inlineStr"/>
+      <c r="O46" s="7" t="inlineStr"/>
+      <c r="P46" s="7" t="inlineStr"/>
+      <c r="Q46" s="7" t="inlineStr"/>
+      <c r="R46" s="7" t="inlineStr"/>
+      <c r="S46" s="1" t="inlineStr"/>
+      <c r="T46" s="1" t="inlineStr"/>
+      <c r="U46" s="1" t="inlineStr"/>
+    </row>
+    <row r="47" customHeight="1" ht="4">
+      <c r="A47" s="1" t="inlineStr"/>
+      <c r="B47" s="1" t="inlineStr"/>
+      <c r="C47" s="1" t="inlineStr"/>
+      <c r="D47" s="1" t="inlineStr"/>
+      <c r="E47" s="1" t="inlineStr"/>
+      <c r="F47" s="1" t="inlineStr"/>
+      <c r="G47" s="1" t="inlineStr"/>
+      <c r="H47" s="1" t="inlineStr"/>
+      <c r="I47" s="1" t="inlineStr"/>
+      <c r="J47" s="1" t="inlineStr"/>
+      <c r="K47" s="1" t="inlineStr"/>
+      <c r="L47" s="1" t="inlineStr"/>
+      <c r="M47" s="1" t="inlineStr"/>
+      <c r="N47" s="1" t="inlineStr"/>
+      <c r="O47" s="1" t="inlineStr"/>
+      <c r="P47" s="1" t="inlineStr"/>
+      <c r="Q47" s="1" t="inlineStr"/>
+      <c r="R47" s="1" t="inlineStr"/>
+      <c r="S47" s="1" t="inlineStr"/>
+      <c r="T47" s="1" t="inlineStr"/>
+      <c r="U47" s="1" t="inlineStr"/>
+    </row>
+    <row r="48" customHeight="1" ht="28">
+      <c r="A48" s="1" t="inlineStr"/>
+      <c r="B48" s="1" t="inlineStr"/>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">التاريخ</t>
+          </r>
+        </is>
+      </c>
+      <c r="D48" s="8" t="inlineStr"/>
+      <c r="E48" s="8" t="inlineStr"/>
+      <c r="F48" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الوجهة</t>
+          </r>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr"/>
+      <c r="H48" s="8" t="inlineStr"/>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">السعة</t>
+          </r>
+        </is>
+      </c>
+      <c r="J48" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">الفئة</t>
+          </r>
+        </is>
+      </c>
+      <c r="K48" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">المصفاة</t>
+          </r>
+        </is>
+      </c>
+      <c r="L48" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">السائق</t>
+          </r>
+        </is>
+      </c>
+      <c r="M48" s="8" t="inlineStr"/>
+      <c r="N48" s="8" t="inlineStr"/>
+      <c r="O48" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">رقم المركبة</t>
+          </r>
+        </is>
+      </c>
+      <c r="P48" s="9" t="inlineStr"/>
+      <c r="Q48" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">المعرف</t>
+          </r>
+        </is>
+      </c>
+      <c r="R48" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">No.</t>
+          </r>
+        </is>
+      </c>
+      <c r="S48" s="10" t="inlineStr"/>
+      <c r="T48" s="10" t="inlineStr"/>
+      <c r="U48" s="1" t="inlineStr"/>
+    </row>
+    <row r="49" customHeight="1" ht="30">
+      <c r="A49" s="1" t="inlineStr"/>
+      <c r="B49" s="1" t="inlineStr"/>
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:46:09</t>
+          </r>
+        </is>
+      </c>
+      <c r="D49" s="11" t="inlineStr"/>
+      <c r="E49" s="11" t="inlineStr"/>
+      <c r="F49" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G49" s="12" t="inlineStr"/>
+      <c r="H49" s="12" t="inlineStr"/>
+      <c r="I49" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J49" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K49" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L49" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M49" s="12" t="inlineStr"/>
+      <c r="N49" s="12" t="inlineStr"/>
+      <c r="O49" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P49" s="12" t="inlineStr"/>
+      <c r="Q49" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">32</t>
+          </r>
+        </is>
+      </c>
+      <c r="R49" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">30</t>
+          </r>
+        </is>
+      </c>
+      <c r="S49" s="13" t="inlineStr"/>
+      <c r="T49" s="13" t="inlineStr"/>
+      <c r="U49" s="1" t="inlineStr"/>
+    </row>
+    <row r="50" customHeight="1" ht="30">
+      <c r="A50" s="1" t="inlineStr"/>
+      <c r="B50" s="1" t="inlineStr"/>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2025-08-17T17:46:42</t>
+          </r>
+        </is>
+      </c>
+      <c r="D50" s="11" t="inlineStr"/>
+      <c r="E50" s="11" t="inlineStr"/>
+      <c r="F50" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">gas station 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="G50" s="12" t="inlineStr"/>
+      <c r="H50" s="12" t="inlineStr"/>
+      <c r="I50" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">25000</t>
+          </r>
+        </is>
+      </c>
+      <c r="J50" s="11" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">price category 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="K50" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ref 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="L50" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">name 84</t>
+          </r>
+        </is>
+      </c>
+      <c r="M50" s="12" t="inlineStr"/>
+      <c r="N50" s="12" t="inlineStr"/>
+      <c r="O50" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">206166</t>
+          </r>
+        </is>
+      </c>
+      <c r="P50" s="12" t="inlineStr"/>
+      <c r="Q50" s="12" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">33</t>
+          </r>
+        </is>
+      </c>
+      <c r="R50" s="13" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">31</t>
+          </r>
+        </is>
+      </c>
+      <c r="S50" s="13" t="inlineStr"/>
+      <c r="T50" s="13" t="inlineStr"/>
+      <c r="U50" s="1" t="inlineStr"/>
+    </row>
+    <row r="51" customHeight="1" ht="924">
+      <c r="A51" s="1" t="inlineStr"/>
+      <c r="B51" s="1" t="inlineStr"/>
+      <c r="C51" s="1" t="inlineStr"/>
+      <c r="D51" s="1" t="inlineStr"/>
+      <c r="E51" s="1" t="inlineStr"/>
+      <c r="F51" s="1" t="inlineStr"/>
+      <c r="G51" s="1" t="inlineStr"/>
+      <c r="H51" s="1" t="inlineStr"/>
+      <c r="I51" s="1" t="inlineStr"/>
+      <c r="J51" s="1" t="inlineStr"/>
+      <c r="K51" s="1" t="inlineStr"/>
+      <c r="L51" s="1" t="inlineStr"/>
+      <c r="M51" s="1" t="inlineStr"/>
+      <c r="N51" s="1" t="inlineStr"/>
+      <c r="O51" s="1" t="inlineStr"/>
+      <c r="P51" s="1" t="inlineStr"/>
+      <c r="Q51" s="1" t="inlineStr"/>
+      <c r="R51" s="1" t="inlineStr"/>
+      <c r="S51" s="1" t="inlineStr"/>
+      <c r="T51" s="1" t="inlineStr"/>
+      <c r="U51" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="J8:O9"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="M8:R9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="E44:H45"/>
+    <mergeCell ref="M45:R46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="R50:T50"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait"/>
